--- a/Data/Temp/Reportes ventas Inconsistentes/042022xlsx.xlsx
+++ b/Data/Temp/Reportes ventas Inconsistentes/042022xlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robot.11\Documents\UiPath\Conciliacion EDS\Data\Temp\Reportes ventas Inconsistentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPathProject\SBTT0044-Conciliacion-Terpel\Data\Temp\Reportes ventas Inconsistentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2330" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-19320" yWindow="-2325" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="Diferencias Salesforce - Sateli" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="116">
   <si>
     <t>No. Recibo sin PCC</t>
   </si>
@@ -352,6 +352,36 @@
   </si>
   <si>
     <t>5358EDS3225</t>
+  </si>
+  <si>
+    <t>EDS2222</t>
+  </si>
+  <si>
+    <t>EDS2223</t>
+  </si>
+  <si>
+    <t>EDS2224</t>
+  </si>
+  <si>
+    <t>EDS2225</t>
+  </si>
+  <si>
+    <t>EDS2226</t>
+  </si>
+  <si>
+    <t>EDS2227</t>
+  </si>
+  <si>
+    <t>EDS2228</t>
+  </si>
+  <si>
+    <t>EDS2229</t>
+  </si>
+  <si>
+    <t>EDS2230</t>
+  </si>
+  <si>
+    <t>EDS2231</t>
   </si>
 </sst>
 </file>
@@ -361,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +405,13 @@
       <color rgb="FF56585B"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -414,8 +451,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -439,8 +477,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -757,26 +796,26 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.54296875" style="1"/>
+    <col min="8" max="8" width="20.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -808,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>5.0000000210344896E+16</v>
       </c>
@@ -840,7 +879,7 @@
         <v>44776.442361111112</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>5.0000000210344896E+16</v>
       </c>
@@ -872,7 +911,7 @@
         <v>44776.442361111112</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>5.0000000210344896E+16</v>
       </c>
@@ -904,7 +943,7 @@
         <v>44776.442361111112</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5.0000000210344896E+16</v>
       </c>
@@ -936,7 +975,7 @@
         <v>44776.442361111112</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1.34045454447815E+20</v>
       </c>
@@ -968,7 +1007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>20006335700</v>
       </c>
@@ -1000,7 +1039,7 @@
         <v>44716.595833333333</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>20006335700</v>
       </c>
@@ -1032,7 +1071,7 @@
         <v>44716.595833333333</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>20006335701</v>
       </c>
@@ -1064,7 +1103,7 @@
         <v>44716.595833333333</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>20006335702</v>
       </c>
@@ -1096,7 +1135,7 @@
         <v>44716.595833333333</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5215</v>
       </c>
@@ -1128,7 +1167,7 @@
         <v>44636.662499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>5216</v>
       </c>
@@ -1160,7 +1199,7 @@
         <v>44636.663194444445</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>5217</v>
       </c>
@@ -1192,7 +1231,7 @@
         <v>44636.665972222225</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5218</v>
       </c>
@@ -1224,7 +1263,7 @@
         <v>44636.665972222225</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5219</v>
       </c>
@@ -1256,7 +1295,7 @@
         <v>44636.668055555558</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>5221</v>
       </c>
@@ -1288,7 +1327,7 @@
         <v>44636.671527777777</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>5222</v>
       </c>
@@ -1320,7 +1359,7 @@
         <v>44636.671527777777</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>5223</v>
       </c>
@@ -1352,7 +1391,7 @@
         <v>44636.673611111109</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>5224</v>
       </c>
@@ -1384,7 +1423,7 @@
         <v>44636.673611111109</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>5225</v>
       </c>
@@ -1416,7 +1455,7 @@
         <v>44636.675000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>5228</v>
       </c>
@@ -1430,7 +1469,7 @@
         <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F21" s="4">
         <v>422701</v>
@@ -1448,7 +1487,7 @@
         <v>44636.676388888889</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>5230</v>
       </c>
@@ -1462,7 +1501,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="F22" s="4">
         <v>406000</v>
@@ -1480,7 +1519,7 @@
         <v>44636.679166666669</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>5231</v>
       </c>
@@ -1494,7 +1533,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F23" s="4">
         <v>99500</v>
@@ -1512,7 +1551,7 @@
         <v>44636.680555555555</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>5232</v>
       </c>
@@ -1526,7 +1565,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F24" s="4">
         <v>111700</v>
@@ -1544,7 +1583,7 @@
         <v>44636.680555555555</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>5233</v>
       </c>
@@ -1558,7 +1597,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="F25" s="4">
         <v>115300</v>
@@ -1576,7 +1615,7 @@
         <v>44636.682638888888</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>5234</v>
       </c>
@@ -1590,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="F26" s="4">
         <v>518400</v>
@@ -1608,7 +1647,7 @@
         <v>44636.682638888888</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>5235</v>
       </c>
@@ -1622,7 +1661,7 @@
         <v>29</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="F27" s="4">
         <v>917500</v>
@@ -1640,7 +1679,7 @@
         <v>44636.684027777781</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>5237</v>
       </c>
@@ -1654,7 +1693,7 @@
         <v>29</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="F28" s="4">
         <v>736100</v>
@@ -1672,7 +1711,7 @@
         <v>44636.68472222222</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>5238</v>
       </c>
@@ -1686,7 +1725,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="F29" s="4">
         <v>699500</v>
@@ -1704,7 +1743,7 @@
         <v>44636.68472222222</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5239</v>
       </c>
@@ -1718,7 +1757,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="F30" s="4">
         <v>363800</v>
@@ -1736,7 +1775,7 @@
         <v>44636.686805555553</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4717</v>
       </c>
@@ -1768,7 +1807,7 @@
         <v>44636.69027777778</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>4718</v>
       </c>
@@ -1800,7 +1839,7 @@
         <v>44636.693055555559</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>4719</v>
       </c>
@@ -1832,7 +1871,7 @@
         <v>44636.693055555559</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>4720</v>
       </c>
@@ -1864,7 +1903,7 @@
         <v>44636.696527777778</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>4721</v>
       </c>
@@ -1896,7 +1935,7 @@
         <v>44636.696527777778</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>4722</v>
       </c>
@@ -1928,7 +1967,7 @@
         <v>44636.697916666664</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>4723</v>
       </c>
@@ -1960,7 +1999,7 @@
         <v>44636.697916666664</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4724</v>
       </c>
@@ -1992,7 +2031,7 @@
         <v>44636.699305555558</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>4725</v>
       </c>
@@ -2024,7 +2063,7 @@
         <v>44636.699305555558</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1343</v>
       </c>
@@ -2056,7 +2095,7 @@
         <v>44636.709027777775</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1344</v>
       </c>
@@ -2088,7 +2127,7 @@
         <v>44636.709027777775</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1345</v>
       </c>
@@ -2120,7 +2159,7 @@
         <v>44636.709027777775</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1346</v>
       </c>
@@ -2152,7 +2191,7 @@
         <v>44636.709027777775</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1347</v>
       </c>
@@ -2184,7 +2223,7 @@
         <v>44636.709722222222</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1348</v>
       </c>
@@ -2216,7 +2255,7 @@
         <v>44636.710416666669</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1352</v>
       </c>
@@ -2248,7 +2287,7 @@
         <v>44636.924305555556</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>1350</v>
       </c>
@@ -2280,7 +2319,7 @@
         <v>44636.924305555556</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1349</v>
       </c>
@@ -2312,7 +2351,7 @@
         <v>44636.924305555556</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1351</v>
       </c>
@@ -2344,7 +2383,7 @@
         <v>44636.924305555556</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1353</v>
       </c>
@@ -2376,7 +2415,7 @@
         <v>44636.941666666666</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1354</v>
       </c>
@@ -2408,7 +2447,7 @@
         <v>44636.941666666666</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1356</v>
       </c>
@@ -2440,7 +2479,7 @@
         <v>44636.947916666664</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1357</v>
       </c>
@@ -2472,7 +2511,7 @@
         <v>44636.953472222223</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>1358</v>
       </c>
@@ -2504,7 +2543,7 @@
         <v>44636.953472222223</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>4731</v>
       </c>
@@ -2536,7 +2575,7 @@
         <v>44636.992361111108</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>4730</v>
       </c>
@@ -2568,7 +2607,7 @@
         <v>44636.992361111108</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>4728</v>
       </c>
@@ -2600,7 +2639,7 @@
         <v>44637.969444444447</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>4729</v>
       </c>
@@ -2632,7 +2671,7 @@
         <v>44637.969444444447</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>4733</v>
       </c>
@@ -2664,7 +2703,7 @@
         <v>44642.679861111108</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>4734</v>
       </c>
@@ -2696,7 +2735,7 @@
         <v>44642.6875</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>4735</v>
       </c>
@@ -2728,7 +2767,7 @@
         <v>44642.6875</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>4736</v>
       </c>
@@ -2760,7 +2799,7 @@
         <v>44642.693055555559</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>4737</v>
       </c>
@@ -2792,7 +2831,7 @@
         <v>44642.693055555559</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>4738</v>
       </c>
@@ -2824,7 +2863,7 @@
         <v>44642.695138888892</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>4739</v>
       </c>
@@ -2856,7 +2895,7 @@
         <v>44642.695833333331</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>4740</v>
       </c>
@@ -2888,7 +2927,7 @@
         <v>44642.696527777778</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>4741</v>
       </c>
@@ -2920,7 +2959,7 @@
         <v>44642.696527777778</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>4742</v>
       </c>
@@ -2952,7 +2991,7 @@
         <v>44642.698611111111</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>4745</v>
       </c>
@@ -2984,7 +3023,7 @@
         <v>44642.71597222222</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>4744</v>
       </c>
@@ -3016,7 +3055,7 @@
         <v>44642.71597222222</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>5344</v>
       </c>
@@ -3048,7 +3087,7 @@
         <v>44643.941666666666</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>5346</v>
       </c>
@@ -3080,7 +3119,7 @@
         <v>44643.944444444445</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>5347</v>
       </c>
@@ -3112,7 +3151,7 @@
         <v>44643.944444444445</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>5348</v>
       </c>
@@ -3144,7 +3183,7 @@
         <v>44643.946527777778</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>5349</v>
       </c>
@@ -3176,7 +3215,7 @@
         <v>44643.946527777778</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>5350</v>
       </c>
@@ -3208,7 +3247,7 @@
         <v>44643.948611111111</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>5351</v>
       </c>
@@ -3240,7 +3279,7 @@
         <v>44643.949305555558</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>5352</v>
       </c>
@@ -3272,7 +3311,7 @@
         <v>44643.949305555558</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>5353</v>
       </c>
@@ -3304,7 +3343,7 @@
         <v>44643.95208333333</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>5355</v>
       </c>
@@ -3336,7 +3375,7 @@
         <v>44643.952777777777</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>5356</v>
       </c>
@@ -3368,7 +3407,7 @@
         <v>44643.952777777777</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>5357</v>
       </c>
@@ -3400,7 +3439,7 @@
         <v>44643.95416666667</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>5358</v>
       </c>
@@ -3438,6 +3477,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009B32A778A31FFD4599684145A474BB02" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c35db349a7b3f7090307af17bf71e6c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6b616d5-dbec-45e2-a325-0767cdc64bbd" xmlns:ns3="d8d7c9da-3c2a-46b5-b5ad-eedeae09cef9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cac5d56ead489c64ac996c859338d02d" ns2:_="" ns3:_="">
     <xsd:import namespace="a6b616d5-dbec-45e2-a325-0767cdc64bbd"/>
@@ -3640,22 +3694,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB1E8A68-E516-4B49-9529-F0A6A74D3CA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A121BA-4B34-4729-897C-C3075E43F231}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21516B90-0DDA-48D6-AFC1-33FC4083D4A4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3672,21 +3728,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79A121BA-4B34-4729-897C-C3075E43F231}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB1E8A68-E516-4B49-9529-F0A6A74D3CA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>